--- a/iselUssSyncV2/OutputWSL/20220428_1055_D50L474W90Q15.0U0.26H72G2_C_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220428_1055_D50L474W90Q15.0U0.26H72G2_C_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="0">
-        <v>72.755612648221401</v>
+        <v>72.756543415242348</v>
       </c>
       <c r="F2" s="0">
-        <v>73.144624505928846</v>
+        <v>73.145555272949807</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="0">
-        <v>73.595873015873025</v>
+        <v>73.59814822414647</v>
       </c>
       <c r="F3" s="0">
-        <v>75.087896825396854</v>
+        <v>75.090172033670271</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="0">
-        <v>72.902460317460324</v>
+        <v>72.905211251100042</v>
       </c>
       <c r="F4" s="0">
-        <v>76.808412698412724</v>
+        <v>76.811163632052441</v>
       </c>
     </row>
     <row r="5">
@@ -182,7 +182,7 @@
         <v>50</v>
       </c>
       <c r="E5" s="0">
-        <v>72.366428571428585</v>
+        <v>72.36923466163249</v>
       </c>
       <c r="F5" s="0"/>
     </row>
@@ -200,7 +200,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="0">
-        <v>71.146428571428572</v>
+        <v>71.149282923626245</v>
       </c>
       <c r="F6" s="0"/>
     </row>
@@ -218,7 +218,7 @@
         <v>50</v>
       </c>
       <c r="E7" s="0">
-        <v>68.796812749004019</v>
+        <v>68.799708468624814</v>
       </c>
       <c r="F7" s="0"/>
     </row>
@@ -236,10 +236,10 @@
         <v>50</v>
       </c>
       <c r="E8" s="0">
-        <v>64.209603174603174</v>
+        <v>64.212533367076617</v>
       </c>
       <c r="F8" s="0">
-        <v>75.395595238095254</v>
+        <v>75.398525430568725</v>
       </c>
     </row>
     <row r="9">
@@ -256,7 +256,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="0">
-        <v>61.475378486055774</v>
+        <v>61.478320537190527</v>
       </c>
       <c r="F9" s="0"/>
     </row>
@@ -274,10 +274,10 @@
         <v>50</v>
       </c>
       <c r="E10" s="0">
-        <v>58.501031746031721</v>
+        <v>58.503984552696487</v>
       </c>
       <c r="F10" s="0">
-        <v>16.822261904761906</v>
+        <v>16.825214711426661</v>
       </c>
     </row>
     <row r="11">
@@ -294,10 +294,10 @@
         <v>50</v>
       </c>
       <c r="E11" s="0">
-        <v>54.88840637450194</v>
+        <v>54.891368833565494</v>
       </c>
       <c r="F11" s="0">
-        <v>23.082231075697212</v>
+        <v>23.085193534760698</v>
       </c>
     </row>
     <row r="12">
@@ -314,10 +314,10 @@
         <v>50</v>
       </c>
       <c r="E12" s="0">
-        <v>53.020555555555568</v>
+        <v>53.023522427144179</v>
       </c>
       <c r="F12" s="0">
-        <v>27.538055555555555</v>
+        <v>27.541022427144178</v>
       </c>
     </row>
     <row r="13">
@@ -334,10 +334,10 @@
         <v>50</v>
       </c>
       <c r="E13" s="0">
-        <v>51.449999999999996</v>
+        <v>51.452971008330934</v>
       </c>
       <c r="F13" s="0">
-        <v>30.206533864541832</v>
+        <v>30.209504872872774</v>
       </c>
     </row>
     <row r="14">
@@ -354,10 +354,10 @@
         <v>50</v>
       </c>
       <c r="E14" s="0">
-        <v>49.049521912350599</v>
+        <v>49.052496781641018</v>
       </c>
       <c r="F14" s="0">
-        <v>32.692231075697201</v>
+        <v>32.695205944987642</v>
       </c>
     </row>
     <row r="15">
@@ -374,10 +374,10 @@
         <v>50</v>
       </c>
       <c r="E15" s="0">
-        <v>46.778286852589638</v>
+        <v>46.781265307056742</v>
       </c>
       <c r="F15" s="0">
-        <v>34.772350597609559</v>
+        <v>34.775329052076671</v>
       </c>
     </row>
     <row r="16">
@@ -394,10 +394,10 @@
         <v>50</v>
       </c>
       <c r="E16" s="0">
-        <v>42.141706349206345</v>
+        <v>42.144691146678333</v>
       </c>
       <c r="F16" s="0">
-        <v>37.475634920634917</v>
+        <v>37.478619718106906</v>
       </c>
     </row>
     <row r="17">
@@ -414,10 +414,10 @@
         <v>50</v>
       </c>
       <c r="E17" s="0">
-        <v>41.514801587301577</v>
+        <v>41.517791624647167</v>
       </c>
       <c r="F17" s="0">
-        <v>38.951269841269848</v>
+        <v>38.954259878615431</v>
       </c>
     </row>
     <row r="18">
@@ -434,10 +434,10 @@
         <v>50</v>
       </c>
       <c r="E18" s="0">
-        <v>38.818924302788858</v>
+        <v>38.821918476876746</v>
       </c>
       <c r="F18" s="0">
-        <v>40.441155378486059</v>
+        <v>40.444149552573954</v>
       </c>
     </row>
     <row r="19">
@@ -454,10 +454,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="0">
-        <v>34.588247011952191</v>
+        <v>34.591246150130871</v>
       </c>
       <c r="F19" s="0">
-        <v>41.296215139442232</v>
+        <v>41.299214277620919</v>
       </c>
     </row>
     <row r="20">
@@ -474,10 +474,10 @@
         <v>50</v>
       </c>
       <c r="E20" s="0">
-        <v>31.041354581673332</v>
+        <v>31.044353719852012</v>
       </c>
       <c r="F20" s="0">
-        <v>41.086573705179298</v>
+        <v>41.089572843357978</v>
       </c>
     </row>
     <row r="21">
@@ -494,10 +494,10 @@
         <v>50</v>
       </c>
       <c r="E21" s="0">
-        <v>32.60246031746032</v>
+        <v>32.605452561068482</v>
       </c>
       <c r="F21" s="0">
-        <v>40.993809523809531</v>
+        <v>40.996801767417693</v>
       </c>
     </row>
     <row r="22">
@@ -514,10 +514,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="0">
-        <v>34.105219123505975</v>
+        <v>34.108197577973094</v>
       </c>
       <c r="F22" s="0">
-        <v>40.763585657370527</v>
+        <v>40.766564111837603</v>
       </c>
     </row>
     <row r="23">
@@ -534,10 +534,10 @@
         <v>50</v>
       </c>
       <c r="E23" s="0">
-        <v>33.099721115537861</v>
+        <v>33.10267888629339</v>
       </c>
       <c r="F23" s="0">
-        <v>40.819800796812743</v>
+        <v>40.822758567568272</v>
       </c>
     </row>
     <row r="24">
@@ -554,10 +554,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="0">
-        <v>32.395436507936509</v>
+        <v>32.398332227557304</v>
       </c>
       <c r="F24" s="0">
-        <v>41.107261904761913</v>
+        <v>41.110157624382701</v>
       </c>
     </row>
     <row r="25">
@@ -574,10 +574,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="0">
-        <v>47.300239043824703</v>
+        <v>47.303045134028658</v>
       </c>
       <c r="F25" s="0">
-        <v>41.388924302788844</v>
+        <v>41.391730392992805</v>
       </c>
     </row>
     <row r="26">
@@ -594,10 +594,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="0">
-        <v>44.634063745019915</v>
+        <v>44.636752627524942</v>
       </c>
       <c r="F26" s="0">
-        <v>41.427928286852591</v>
+        <v>41.430617169357618</v>
       </c>
     </row>
     <row r="27">
@@ -614,10 +614,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="0">
-        <v>39.762539682539689</v>
+        <v>39.765083779063673</v>
       </c>
       <c r="F27" s="0">
-        <v>40.881190476190469</v>
+        <v>40.883734572714467</v>
       </c>
     </row>
     <row r="28">
@@ -634,10 +634,10 @@
         <v>50</v>
       </c>
       <c r="E28" s="0">
-        <v>34.766494023904386</v>
+        <v>34.768865756165226</v>
       </c>
       <c r="F28" s="0">
-        <v>40.571593625498004</v>
+        <v>40.573965357758858</v>
       </c>
     </row>
     <row r="29">
@@ -654,10 +654,10 @@
         <v>50</v>
       </c>
       <c r="E29" s="0">
-        <v>38.111428571428576</v>
+        <v>38.113600361144172</v>
       </c>
       <c r="F29" s="0">
-        <v>40.384642857142865</v>
+        <v>40.386814646858447</v>
       </c>
     </row>
     <row r="30">
@@ -674,10 +674,10 @@
         <v>50</v>
       </c>
       <c r="E30" s="0">
-        <v>40.05697211155379</v>
+        <v>40.05866128133259</v>
       </c>
       <c r="F30" s="0">
-        <v>39.933864541832676</v>
+        <v>39.935553711611483</v>
       </c>
     </row>
   </sheetData>
